--- a/作成物/400_テスト/401_テスト仕様書/テスト仕様書.xlsx
+++ b/作成物/400_テスト/401_テスト仕様書/テスト仕様書.xlsx
@@ -2,21 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenya/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenya/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{314D9128-71C1-1A43-BEBD-22279D169EF9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F2F89F7-79C3-394C-A41A-3F59F3614F6F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" xr2:uid="{9B52438A-3396-BB48-A2E1-62114A930C9D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9B52438A-3396-BB48-A2E1-62114A930C9D}"/>
   </bookViews>
   <sheets>
-    <sheet name="テスト仕様_mobile" sheetId="2" r:id="rId1"/>
-    <sheet name="テスト仕様_web" sheetId="1" r:id="rId2"/>
+    <sheet name="表紙" sheetId="8" r:id="rId1"/>
+    <sheet name="テスト仕様_mobile" sheetId="2" r:id="rId2"/>
+    <sheet name="テスト仕様_web" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$44</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">表紙!$A$1:$IV$2</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="118">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1"/>
@@ -699,10 +704,143 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Mobile側アプリケしょん</t>
+    <t>ASO English＋</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松尾</t>
+    <rPh sb="0" eb="2">
+      <t>マツオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中村</t>
+    <rPh sb="0" eb="2">
+      <t>ナカムr</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rev 1.0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>担当</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>PL</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>改版理由・箇所</t>
+    <rPh sb="0" eb="2">
+      <t>カイハン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カショ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>作成･更新日</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>コウシンビ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>版数・リビジョン</t>
+    <rPh sb="0" eb="2">
+      <t>ハンスウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>更新履歴</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>システム名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>チーム名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ＰＬ</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>ＰＭ</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>情報工学科</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウガクカ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>麻生情報ビジネス専門学校</t>
+    <rPh sb="0" eb="2">
+      <t>アソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センモン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ガッコウ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>作成日</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイビ</t>
+    </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>テスト仕様書</t>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>Mobile側アプリケーション</t>
     <rPh sb="0" eb="1">
       <t>ガw</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テスト仕様書</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -710,33 +848,30 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="22"/>
-      <color theme="1"/>
-      <name val="游ゴシック (本文)"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -748,6 +883,88 @@
       <name val="游ゴシック (本文)"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="36"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="明朝"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -757,7 +974,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -794,20 +1011,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -817,13 +1034,124 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -842,29 +1170,449 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="12" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="7" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1" xr:uid="{1256F412-D799-40F1-B10D-CC6E153BCC0C}"/>
+    <cellStyle name="標準_Sheet1" xfId="4" xr:uid="{82821E11-4732-4554-975F-2EACF84BF754}"/>
+    <cellStyle name="標準_コピー ～ 種別マスタ項目_詳細設計書_Ver1" xfId="5" xr:uid="{0C4F364D-F98D-477E-93AC-F33D6CEF3D1D}"/>
+    <cellStyle name="標準_システム管理" xfId="2" xr:uid="{6F75F33F-BCDB-4AC5-A4E2-9418D111670A}"/>
+    <cellStyle name="標準_種別マスタ" xfId="3" xr:uid="{E07A8B73-17B5-4BA7-87EF-74ECC9D9A28C}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="16">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -875,6 +1623,32 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D5594B21-32F0-425D-B751-A3336F9F828B}" name="テーブル1" displayName="テーブル1" ref="B9:E24" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+  <autoFilter ref="B9:E24" xr:uid="{519648A0-2F63-43EF-ADB4-11A53805D171}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{22352269-63B9-4A45-BFED-39D08EB975B1}" name="NO" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{44E4D211-BABF-490F-939B-8C7A0D104F81}" name="テスト項目" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{12FE0AC0-7119-4374-9E1B-ED9D3195BF53}" name="テスト動作" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{CCFE2C12-95BE-4CCF-A72C-AD87390B8B91}" name="確認内容" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4F4AB2D8-F9D2-4A98-AAA6-3FF2B6DFAC69}" name="テーブル2" displayName="テーブル2" ref="B9:E24" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4">
+  <autoFilter ref="B9:E24" xr:uid="{9D2BC11A-FB4D-49A7-8D11-10E248F57269}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{EA04BA67-9962-4235-BA0F-DA62084D53A4}" name="NO" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{9F177040-CB0A-49CC-AB07-E11012E9F458}" name="テスト項目" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{20FAD4EB-3510-472D-8539-0AC7E40EA1CB}" name="テスト動作" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{2DA0C4C8-36ED-466A-93C5-370581549078}" name="確認内容" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -918,70 +1692,18 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Arial">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Arial" panose="020B0604020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="굴림"/>
+        <a:font script="Hans" typeface="黑体"/>
+        <a:font script="Hant" typeface="微軟正黑體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -1005,23 +1727,41 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" panose="020B0604020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="굴림"/>
+        <a:font script="Hans" typeface="黑体"/>
+        <a:font script="Hant" typeface="微軟正黑體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1173,276 +1913,2457 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977D0306-276C-9E45-BB84-C84EC09AE07E}">
-  <dimension ref="A2:D24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B7BB6E-A5E6-40F1-B4A1-BC81DD5970F5}">
+  <dimension ref="A1:FT44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="109" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27:AB27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" customWidth="1"/>
-    <col min="4" max="4" width="51.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="4.1640625" style="11" customWidth="1"/>
+    <col min="5" max="6" width="4.1640625" style="12" customWidth="1"/>
+    <col min="7" max="28" width="4.1640625" style="11" customWidth="1"/>
+    <col min="29" max="29" width="5.33203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="5.1640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="4.1640625" style="11" customWidth="1"/>
+    <col min="33" max="36" width="4" style="11" customWidth="1"/>
+    <col min="37" max="256" width="8.83203125" style="11"/>
+    <col min="257" max="288" width="4.1640625" style="11" customWidth="1"/>
+    <col min="289" max="292" width="4" style="11" customWidth="1"/>
+    <col min="293" max="512" width="8.83203125" style="11"/>
+    <col min="513" max="544" width="4.1640625" style="11" customWidth="1"/>
+    <col min="545" max="548" width="4" style="11" customWidth="1"/>
+    <col min="549" max="768" width="8.83203125" style="11"/>
+    <col min="769" max="800" width="4.1640625" style="11" customWidth="1"/>
+    <col min="801" max="804" width="4" style="11" customWidth="1"/>
+    <col min="805" max="1024" width="8.83203125" style="11"/>
+    <col min="1025" max="1056" width="4.1640625" style="11" customWidth="1"/>
+    <col min="1057" max="1060" width="4" style="11" customWidth="1"/>
+    <col min="1061" max="1280" width="8.83203125" style="11"/>
+    <col min="1281" max="1312" width="4.1640625" style="11" customWidth="1"/>
+    <col min="1313" max="1316" width="4" style="11" customWidth="1"/>
+    <col min="1317" max="1536" width="8.83203125" style="11"/>
+    <col min="1537" max="1568" width="4.1640625" style="11" customWidth="1"/>
+    <col min="1569" max="1572" width="4" style="11" customWidth="1"/>
+    <col min="1573" max="1792" width="8.83203125" style="11"/>
+    <col min="1793" max="1824" width="4.1640625" style="11" customWidth="1"/>
+    <col min="1825" max="1828" width="4" style="11" customWidth="1"/>
+    <col min="1829" max="2048" width="8.83203125" style="11"/>
+    <col min="2049" max="2080" width="4.1640625" style="11" customWidth="1"/>
+    <col min="2081" max="2084" width="4" style="11" customWidth="1"/>
+    <col min="2085" max="2304" width="8.83203125" style="11"/>
+    <col min="2305" max="2336" width="4.1640625" style="11" customWidth="1"/>
+    <col min="2337" max="2340" width="4" style="11" customWidth="1"/>
+    <col min="2341" max="2560" width="8.83203125" style="11"/>
+    <col min="2561" max="2592" width="4.1640625" style="11" customWidth="1"/>
+    <col min="2593" max="2596" width="4" style="11" customWidth="1"/>
+    <col min="2597" max="2816" width="8.83203125" style="11"/>
+    <col min="2817" max="2848" width="4.1640625" style="11" customWidth="1"/>
+    <col min="2849" max="2852" width="4" style="11" customWidth="1"/>
+    <col min="2853" max="3072" width="8.83203125" style="11"/>
+    <col min="3073" max="3104" width="4.1640625" style="11" customWidth="1"/>
+    <col min="3105" max="3108" width="4" style="11" customWidth="1"/>
+    <col min="3109" max="3328" width="8.83203125" style="11"/>
+    <col min="3329" max="3360" width="4.1640625" style="11" customWidth="1"/>
+    <col min="3361" max="3364" width="4" style="11" customWidth="1"/>
+    <col min="3365" max="3584" width="8.83203125" style="11"/>
+    <col min="3585" max="3616" width="4.1640625" style="11" customWidth="1"/>
+    <col min="3617" max="3620" width="4" style="11" customWidth="1"/>
+    <col min="3621" max="3840" width="8.83203125" style="11"/>
+    <col min="3841" max="3872" width="4.1640625" style="11" customWidth="1"/>
+    <col min="3873" max="3876" width="4" style="11" customWidth="1"/>
+    <col min="3877" max="4096" width="8.83203125" style="11"/>
+    <col min="4097" max="4128" width="4.1640625" style="11" customWidth="1"/>
+    <col min="4129" max="4132" width="4" style="11" customWidth="1"/>
+    <col min="4133" max="4352" width="8.83203125" style="11"/>
+    <col min="4353" max="4384" width="4.1640625" style="11" customWidth="1"/>
+    <col min="4385" max="4388" width="4" style="11" customWidth="1"/>
+    <col min="4389" max="4608" width="8.83203125" style="11"/>
+    <col min="4609" max="4640" width="4.1640625" style="11" customWidth="1"/>
+    <col min="4641" max="4644" width="4" style="11" customWidth="1"/>
+    <col min="4645" max="4864" width="8.83203125" style="11"/>
+    <col min="4865" max="4896" width="4.1640625" style="11" customWidth="1"/>
+    <col min="4897" max="4900" width="4" style="11" customWidth="1"/>
+    <col min="4901" max="5120" width="8.83203125" style="11"/>
+    <col min="5121" max="5152" width="4.1640625" style="11" customWidth="1"/>
+    <col min="5153" max="5156" width="4" style="11" customWidth="1"/>
+    <col min="5157" max="5376" width="8.83203125" style="11"/>
+    <col min="5377" max="5408" width="4.1640625" style="11" customWidth="1"/>
+    <col min="5409" max="5412" width="4" style="11" customWidth="1"/>
+    <col min="5413" max="5632" width="8.83203125" style="11"/>
+    <col min="5633" max="5664" width="4.1640625" style="11" customWidth="1"/>
+    <col min="5665" max="5668" width="4" style="11" customWidth="1"/>
+    <col min="5669" max="5888" width="8.83203125" style="11"/>
+    <col min="5889" max="5920" width="4.1640625" style="11" customWidth="1"/>
+    <col min="5921" max="5924" width="4" style="11" customWidth="1"/>
+    <col min="5925" max="6144" width="8.83203125" style="11"/>
+    <col min="6145" max="6176" width="4.1640625" style="11" customWidth="1"/>
+    <col min="6177" max="6180" width="4" style="11" customWidth="1"/>
+    <col min="6181" max="6400" width="8.83203125" style="11"/>
+    <col min="6401" max="6432" width="4.1640625" style="11" customWidth="1"/>
+    <col min="6433" max="6436" width="4" style="11" customWidth="1"/>
+    <col min="6437" max="6656" width="8.83203125" style="11"/>
+    <col min="6657" max="6688" width="4.1640625" style="11" customWidth="1"/>
+    <col min="6689" max="6692" width="4" style="11" customWidth="1"/>
+    <col min="6693" max="6912" width="8.83203125" style="11"/>
+    <col min="6913" max="6944" width="4.1640625" style="11" customWidth="1"/>
+    <col min="6945" max="6948" width="4" style="11" customWidth="1"/>
+    <col min="6949" max="7168" width="8.83203125" style="11"/>
+    <col min="7169" max="7200" width="4.1640625" style="11" customWidth="1"/>
+    <col min="7201" max="7204" width="4" style="11" customWidth="1"/>
+    <col min="7205" max="7424" width="8.83203125" style="11"/>
+    <col min="7425" max="7456" width="4.1640625" style="11" customWidth="1"/>
+    <col min="7457" max="7460" width="4" style="11" customWidth="1"/>
+    <col min="7461" max="7680" width="8.83203125" style="11"/>
+    <col min="7681" max="7712" width="4.1640625" style="11" customWidth="1"/>
+    <col min="7713" max="7716" width="4" style="11" customWidth="1"/>
+    <col min="7717" max="7936" width="8.83203125" style="11"/>
+    <col min="7937" max="7968" width="4.1640625" style="11" customWidth="1"/>
+    <col min="7969" max="7972" width="4" style="11" customWidth="1"/>
+    <col min="7973" max="8192" width="8.83203125" style="11"/>
+    <col min="8193" max="8224" width="4.1640625" style="11" customWidth="1"/>
+    <col min="8225" max="8228" width="4" style="11" customWidth="1"/>
+    <col min="8229" max="8448" width="8.83203125" style="11"/>
+    <col min="8449" max="8480" width="4.1640625" style="11" customWidth="1"/>
+    <col min="8481" max="8484" width="4" style="11" customWidth="1"/>
+    <col min="8485" max="8704" width="8.83203125" style="11"/>
+    <col min="8705" max="8736" width="4.1640625" style="11" customWidth="1"/>
+    <col min="8737" max="8740" width="4" style="11" customWidth="1"/>
+    <col min="8741" max="8960" width="8.83203125" style="11"/>
+    <col min="8961" max="8992" width="4.1640625" style="11" customWidth="1"/>
+    <col min="8993" max="8996" width="4" style="11" customWidth="1"/>
+    <col min="8997" max="9216" width="8.83203125" style="11"/>
+    <col min="9217" max="9248" width="4.1640625" style="11" customWidth="1"/>
+    <col min="9249" max="9252" width="4" style="11" customWidth="1"/>
+    <col min="9253" max="9472" width="8.83203125" style="11"/>
+    <col min="9473" max="9504" width="4.1640625" style="11" customWidth="1"/>
+    <col min="9505" max="9508" width="4" style="11" customWidth="1"/>
+    <col min="9509" max="9728" width="8.83203125" style="11"/>
+    <col min="9729" max="9760" width="4.1640625" style="11" customWidth="1"/>
+    <col min="9761" max="9764" width="4" style="11" customWidth="1"/>
+    <col min="9765" max="9984" width="8.83203125" style="11"/>
+    <col min="9985" max="10016" width="4.1640625" style="11" customWidth="1"/>
+    <col min="10017" max="10020" width="4" style="11" customWidth="1"/>
+    <col min="10021" max="10240" width="8.83203125" style="11"/>
+    <col min="10241" max="10272" width="4.1640625" style="11" customWidth="1"/>
+    <col min="10273" max="10276" width="4" style="11" customWidth="1"/>
+    <col min="10277" max="10496" width="8.83203125" style="11"/>
+    <col min="10497" max="10528" width="4.1640625" style="11" customWidth="1"/>
+    <col min="10529" max="10532" width="4" style="11" customWidth="1"/>
+    <col min="10533" max="10752" width="8.83203125" style="11"/>
+    <col min="10753" max="10784" width="4.1640625" style="11" customWidth="1"/>
+    <col min="10785" max="10788" width="4" style="11" customWidth="1"/>
+    <col min="10789" max="11008" width="8.83203125" style="11"/>
+    <col min="11009" max="11040" width="4.1640625" style="11" customWidth="1"/>
+    <col min="11041" max="11044" width="4" style="11" customWidth="1"/>
+    <col min="11045" max="11264" width="8.83203125" style="11"/>
+    <col min="11265" max="11296" width="4.1640625" style="11" customWidth="1"/>
+    <col min="11297" max="11300" width="4" style="11" customWidth="1"/>
+    <col min="11301" max="11520" width="8.83203125" style="11"/>
+    <col min="11521" max="11552" width="4.1640625" style="11" customWidth="1"/>
+    <col min="11553" max="11556" width="4" style="11" customWidth="1"/>
+    <col min="11557" max="11776" width="8.83203125" style="11"/>
+    <col min="11777" max="11808" width="4.1640625" style="11" customWidth="1"/>
+    <col min="11809" max="11812" width="4" style="11" customWidth="1"/>
+    <col min="11813" max="12032" width="8.83203125" style="11"/>
+    <col min="12033" max="12064" width="4.1640625" style="11" customWidth="1"/>
+    <col min="12065" max="12068" width="4" style="11" customWidth="1"/>
+    <col min="12069" max="12288" width="8.83203125" style="11"/>
+    <col min="12289" max="12320" width="4.1640625" style="11" customWidth="1"/>
+    <col min="12321" max="12324" width="4" style="11" customWidth="1"/>
+    <col min="12325" max="12544" width="8.83203125" style="11"/>
+    <col min="12545" max="12576" width="4.1640625" style="11" customWidth="1"/>
+    <col min="12577" max="12580" width="4" style="11" customWidth="1"/>
+    <col min="12581" max="12800" width="8.83203125" style="11"/>
+    <col min="12801" max="12832" width="4.1640625" style="11" customWidth="1"/>
+    <col min="12833" max="12836" width="4" style="11" customWidth="1"/>
+    <col min="12837" max="13056" width="8.83203125" style="11"/>
+    <col min="13057" max="13088" width="4.1640625" style="11" customWidth="1"/>
+    <col min="13089" max="13092" width="4" style="11" customWidth="1"/>
+    <col min="13093" max="13312" width="8.83203125" style="11"/>
+    <col min="13313" max="13344" width="4.1640625" style="11" customWidth="1"/>
+    <col min="13345" max="13348" width="4" style="11" customWidth="1"/>
+    <col min="13349" max="13568" width="8.83203125" style="11"/>
+    <col min="13569" max="13600" width="4.1640625" style="11" customWidth="1"/>
+    <col min="13601" max="13604" width="4" style="11" customWidth="1"/>
+    <col min="13605" max="13824" width="8.83203125" style="11"/>
+    <col min="13825" max="13856" width="4.1640625" style="11" customWidth="1"/>
+    <col min="13857" max="13860" width="4" style="11" customWidth="1"/>
+    <col min="13861" max="14080" width="8.83203125" style="11"/>
+    <col min="14081" max="14112" width="4.1640625" style="11" customWidth="1"/>
+    <col min="14113" max="14116" width="4" style="11" customWidth="1"/>
+    <col min="14117" max="14336" width="8.83203125" style="11"/>
+    <col min="14337" max="14368" width="4.1640625" style="11" customWidth="1"/>
+    <col min="14369" max="14372" width="4" style="11" customWidth="1"/>
+    <col min="14373" max="14592" width="8.83203125" style="11"/>
+    <col min="14593" max="14624" width="4.1640625" style="11" customWidth="1"/>
+    <col min="14625" max="14628" width="4" style="11" customWidth="1"/>
+    <col min="14629" max="14848" width="8.83203125" style="11"/>
+    <col min="14849" max="14880" width="4.1640625" style="11" customWidth="1"/>
+    <col min="14881" max="14884" width="4" style="11" customWidth="1"/>
+    <col min="14885" max="15104" width="8.83203125" style="11"/>
+    <col min="15105" max="15136" width="4.1640625" style="11" customWidth="1"/>
+    <col min="15137" max="15140" width="4" style="11" customWidth="1"/>
+    <col min="15141" max="15360" width="8.83203125" style="11"/>
+    <col min="15361" max="15392" width="4.1640625" style="11" customWidth="1"/>
+    <col min="15393" max="15396" width="4" style="11" customWidth="1"/>
+    <col min="15397" max="15616" width="8.83203125" style="11"/>
+    <col min="15617" max="15648" width="4.1640625" style="11" customWidth="1"/>
+    <col min="15649" max="15652" width="4" style="11" customWidth="1"/>
+    <col min="15653" max="15872" width="8.83203125" style="11"/>
+    <col min="15873" max="15904" width="4.1640625" style="11" customWidth="1"/>
+    <col min="15905" max="15908" width="4" style="11" customWidth="1"/>
+    <col min="15909" max="16128" width="8.83203125" style="11"/>
+    <col min="16129" max="16160" width="4.1640625" style="11" customWidth="1"/>
+    <col min="16161" max="16164" width="4" style="11" customWidth="1"/>
+    <col min="16165" max="16384" width="8.83203125" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="1:176" ht="14">
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+    </row>
+    <row r="2" spans="1:176" s="30" customFormat="1" ht="12.75" customHeight="1">
+      <c r="A2" s="37"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="18"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31"/>
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31"/>
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="31"/>
+      <c r="AT2" s="31"/>
+      <c r="AU2" s="31"/>
+      <c r="AV2" s="31"/>
+      <c r="AW2" s="31"/>
+      <c r="AX2" s="31"/>
+      <c r="AY2" s="31"/>
+      <c r="AZ2" s="31"/>
+      <c r="BA2" s="31"/>
+      <c r="BB2" s="31"/>
+      <c r="BC2" s="31"/>
+      <c r="BD2" s="31"/>
+      <c r="BE2" s="31"/>
+      <c r="BF2" s="31"/>
+      <c r="BG2" s="31"/>
+      <c r="BH2" s="31"/>
+      <c r="BI2" s="31"/>
+      <c r="BJ2" s="31"/>
+      <c r="BK2" s="31"/>
+      <c r="BL2" s="31"/>
+      <c r="BM2" s="31"/>
+      <c r="BN2" s="31"/>
+      <c r="BO2" s="31"/>
+      <c r="BP2" s="31"/>
+      <c r="BQ2" s="31"/>
+      <c r="BR2" s="31"/>
+      <c r="BS2" s="31"/>
+      <c r="BT2" s="31"/>
+      <c r="BU2" s="31"/>
+      <c r="BV2" s="31"/>
+      <c r="BW2" s="31"/>
+      <c r="BX2" s="31"/>
+      <c r="BY2" s="31"/>
+      <c r="BZ2" s="31"/>
+      <c r="CA2" s="31"/>
+      <c r="CB2" s="31"/>
+      <c r="CC2" s="31"/>
+      <c r="CD2" s="31"/>
+      <c r="CE2" s="31"/>
+      <c r="CF2" s="31"/>
+      <c r="CG2" s="31"/>
+      <c r="CH2" s="31"/>
+      <c r="CI2" s="31"/>
+      <c r="CJ2" s="31"/>
+      <c r="CK2" s="31"/>
+      <c r="CL2" s="31"/>
+      <c r="CM2" s="31"/>
+      <c r="CN2" s="31"/>
+      <c r="CO2" s="31"/>
+      <c r="CP2" s="31"/>
+      <c r="CQ2" s="31"/>
+      <c r="CR2" s="31"/>
+      <c r="CS2" s="31"/>
+      <c r="CT2" s="31"/>
+      <c r="CU2" s="31"/>
+      <c r="CV2" s="31"/>
+      <c r="CW2" s="31"/>
+      <c r="CX2" s="31"/>
+      <c r="CY2" s="31"/>
+      <c r="CZ2" s="31"/>
+      <c r="DA2" s="31"/>
+      <c r="DB2" s="31"/>
+      <c r="DC2" s="31"/>
+      <c r="DD2" s="31"/>
+      <c r="DE2" s="31"/>
+      <c r="DF2" s="31"/>
+      <c r="DG2" s="31"/>
+      <c r="DH2" s="31"/>
+      <c r="DI2" s="31"/>
+      <c r="DJ2" s="31"/>
+      <c r="DK2" s="31"/>
+      <c r="DL2" s="31"/>
+      <c r="DM2" s="31"/>
+      <c r="DN2" s="31"/>
+      <c r="DO2" s="31"/>
+      <c r="DP2" s="31"/>
+      <c r="DQ2" s="31"/>
+      <c r="DR2" s="31"/>
+      <c r="DS2" s="31"/>
+      <c r="DT2" s="31"/>
+      <c r="DU2" s="31"/>
+      <c r="DV2" s="31"/>
+      <c r="DW2" s="31"/>
+      <c r="DX2" s="31"/>
+      <c r="DY2" s="31"/>
+      <c r="DZ2" s="31"/>
+      <c r="EA2" s="31"/>
+      <c r="EB2" s="31"/>
+      <c r="EC2" s="31"/>
+      <c r="ED2" s="31"/>
+      <c r="EE2" s="31"/>
+      <c r="EF2" s="31"/>
+      <c r="EG2" s="31"/>
+      <c r="EH2" s="31"/>
+      <c r="EI2" s="31"/>
+      <c r="EJ2" s="31"/>
+      <c r="EK2" s="31"/>
+      <c r="EL2" s="31"/>
+      <c r="EM2" s="31"/>
+      <c r="EN2" s="31"/>
+      <c r="EO2" s="31"/>
+      <c r="EP2" s="31"/>
+      <c r="EQ2" s="31"/>
+      <c r="ER2" s="31"/>
+      <c r="ES2" s="31"/>
+      <c r="ET2" s="31"/>
+      <c r="EU2" s="31"/>
+      <c r="EV2" s="31"/>
+      <c r="EW2" s="31"/>
+      <c r="EX2" s="31"/>
+      <c r="EY2" s="31"/>
+      <c r="EZ2" s="31"/>
+      <c r="FA2" s="31"/>
+      <c r="FB2" s="31"/>
+      <c r="FC2" s="31"/>
+      <c r="FD2" s="31"/>
+      <c r="FE2" s="31"/>
+      <c r="FF2" s="31"/>
+      <c r="FG2" s="31"/>
+      <c r="FH2" s="31"/>
+      <c r="FI2" s="31"/>
+      <c r="FJ2" s="31"/>
+      <c r="FK2" s="31"/>
+      <c r="FL2" s="31"/>
+      <c r="FM2" s="31"/>
+      <c r="FN2" s="31"/>
+      <c r="FO2" s="31"/>
+      <c r="FP2" s="31"/>
+      <c r="FQ2" s="31"/>
+      <c r="FR2" s="31"/>
+      <c r="FS2" s="31"/>
+      <c r="FT2" s="31"/>
+    </row>
+    <row r="3" spans="1:176" ht="12.75" customHeight="1">
+      <c r="A3" s="24"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="29"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="84" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z3" s="85"/>
+      <c r="AA3" s="87">
+        <v>43840</v>
+      </c>
+      <c r="AB3" s="88"/>
+      <c r="AC3" s="88"/>
+      <c r="AD3" s="85"/>
+      <c r="AE3" s="18"/>
+      <c r="AF3" s="17"/>
+    </row>
+    <row r="4" spans="1:176" ht="12.75" customHeight="1">
+      <c r="A4" s="24"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="17"/>
+    </row>
+    <row r="5" spans="1:176" ht="12.75" customHeight="1">
+      <c r="A5" s="24"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18"/>
+      <c r="O5" s="18"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18"/>
+      <c r="T5" s="18"/>
+      <c r="U5" s="18"/>
+      <c r="V5" s="18"/>
+      <c r="W5" s="18"/>
+      <c r="X5" s="18"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="17"/>
+    </row>
+    <row r="6" spans="1:176" ht="12.75" customHeight="1">
+      <c r="A6" s="24"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA6" s="18"/>
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="18"/>
+      <c r="AD6" s="18"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="17"/>
+    </row>
+    <row r="7" spans="1:176" ht="12.75" customHeight="1">
+      <c r="A7" s="24"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
+      <c r="AB7" s="18"/>
+      <c r="AC7" s="18"/>
+      <c r="AD7" s="18"/>
+      <c r="AE7" s="18"/>
+      <c r="AF7" s="17"/>
+    </row>
+    <row r="8" spans="1:176" ht="12.75" customHeight="1">
+      <c r="A8" s="24"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="18"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="18"/>
+      <c r="X8" s="18"/>
+      <c r="Y8" s="44" t="s">
+        <v>111</v>
+      </c>
+      <c r="Z8" s="45"/>
+      <c r="AA8" s="44" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD8" s="45"/>
+      <c r="AF8" s="17"/>
+    </row>
+    <row r="9" spans="1:176" ht="12.75" customHeight="1">
+      <c r="A9" s="24"/>
+      <c r="B9" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
+      <c r="O9" s="47"/>
+      <c r="P9" s="47"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="18"/>
+      <c r="X9" s="18"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="50"/>
+      <c r="AA9" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="AD9" s="62"/>
+      <c r="AF9" s="17"/>
+    </row>
+    <row r="10" spans="1:176" ht="12.75" customHeight="1">
+      <c r="A10" s="24"/>
+      <c r="B10" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="74"/>
+      <c r="H10" s="74"/>
+      <c r="I10" s="74"/>
+      <c r="J10" s="74"/>
+      <c r="K10" s="74"/>
+      <c r="L10" s="74"/>
+      <c r="M10" s="74"/>
+      <c r="N10" s="74"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="18"/>
+      <c r="Y10" s="51"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="58"/>
+      <c r="AC10" s="63"/>
+      <c r="AD10" s="64"/>
+      <c r="AF10" s="17"/>
+    </row>
+    <row r="11" spans="1:176" ht="12.75" customHeight="1">
+      <c r="A11" s="24"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="77"/>
+      <c r="P11" s="77"/>
+      <c r="Q11" s="78"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="Y11" s="53"/>
+      <c r="Z11" s="54"/>
+      <c r="AA11" s="59"/>
+      <c r="AB11" s="60"/>
+      <c r="AC11" s="65"/>
+      <c r="AD11" s="66"/>
+      <c r="AF11" s="17"/>
+    </row>
+    <row r="12" spans="1:176" ht="12.75" customHeight="1">
+      <c r="A12" s="24"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="AA12" s="18"/>
+      <c r="AB12" s="18"/>
+      <c r="AC12" s="18"/>
+      <c r="AD12" s="18"/>
+      <c r="AE12" s="18"/>
+      <c r="AF12" s="17"/>
+    </row>
+    <row r="13" spans="1:176" ht="12.75" customHeight="1">
+      <c r="A13" s="24"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="18"/>
+      <c r="U13" s="18"/>
+      <c r="V13" s="18"/>
+      <c r="W13" s="18"/>
+      <c r="AA13" s="18"/>
+      <c r="AB13" s="18"/>
+      <c r="AC13" s="18"/>
+      <c r="AD13" s="18"/>
+      <c r="AE13" s="18"/>
+      <c r="AF13" s="17"/>
+    </row>
+    <row r="14" spans="1:176" ht="12.75" customHeight="1">
+      <c r="A14" s="24"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
+      <c r="X14" s="18"/>
+      <c r="Y14" s="18"/>
+      <c r="Z14" s="18"/>
+      <c r="AA14" s="18"/>
+      <c r="AB14" s="18"/>
+      <c r="AC14" s="18"/>
+      <c r="AD14" s="18"/>
+      <c r="AE14" s="18"/>
+      <c r="AF14" s="17"/>
+    </row>
+    <row r="15" spans="1:176" ht="12.75" customHeight="1">
+      <c r="A15" s="24"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18"/>
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18"/>
+      <c r="AA15" s="18"/>
+      <c r="AB15" s="18"/>
+      <c r="AC15" s="18"/>
+      <c r="AD15" s="18"/>
+      <c r="AE15" s="18"/>
+      <c r="AF15" s="17"/>
+    </row>
+    <row r="16" spans="1:176" ht="12.75" customHeight="1">
+      <c r="A16" s="24"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="18"/>
+      <c r="AE16" s="18"/>
+      <c r="AF16" s="17"/>
+    </row>
+    <row r="17" spans="1:32" ht="12.75" customHeight="1">
+      <c r="A17" s="24"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="18"/>
+      <c r="AE17" s="18"/>
+      <c r="AF17" s="17"/>
+    </row>
+    <row r="18" spans="1:32" ht="12.75" customHeight="1">
+      <c r="A18" s="24"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="M18" s="80"/>
+      <c r="N18" s="80"/>
+      <c r="O18" s="80"/>
+      <c r="P18" s="80"/>
+      <c r="Q18" s="80"/>
+      <c r="R18" s="80"/>
+      <c r="S18" s="80"/>
+      <c r="T18" s="80"/>
+      <c r="U18" s="80"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="18"/>
+      <c r="AE18" s="18"/>
+      <c r="AF18" s="17"/>
+    </row>
+    <row r="19" spans="1:32" ht="12.75" customHeight="1">
+      <c r="A19" s="24"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="80"/>
+      <c r="M19" s="80"/>
+      <c r="N19" s="80"/>
+      <c r="O19" s="80"/>
+      <c r="P19" s="80"/>
+      <c r="Q19" s="80"/>
+      <c r="R19" s="80"/>
+      <c r="S19" s="80"/>
+      <c r="T19" s="80"/>
+      <c r="U19" s="80"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="18"/>
+      <c r="AE19" s="18"/>
+      <c r="AF19" s="17"/>
+    </row>
+    <row r="20" spans="1:32" ht="12.75" customHeight="1">
+      <c r="A20" s="24"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="80"/>
+      <c r="M20" s="80"/>
+      <c r="N20" s="80"/>
+      <c r="O20" s="80"/>
+      <c r="P20" s="80"/>
+      <c r="Q20" s="80"/>
+      <c r="R20" s="80"/>
+      <c r="S20" s="80"/>
+      <c r="T20" s="80"/>
+      <c r="U20" s="80"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="18"/>
+      <c r="X20" s="18"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="18"/>
+      <c r="AE20" s="18"/>
+      <c r="AF20" s="17"/>
+    </row>
+    <row r="21" spans="1:32" ht="12.75" customHeight="1">
+      <c r="A21" s="24"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="18"/>
+      <c r="X21" s="18"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="18"/>
+      <c r="AE21" s="18"/>
+      <c r="AF21" s="17"/>
+    </row>
+    <row r="22" spans="1:32" ht="12.75" customHeight="1">
+      <c r="A22" s="24"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="17"/>
+    </row>
+    <row r="23" spans="1:32" ht="12.75" customHeight="1">
+      <c r="A23" s="24"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="18"/>
+      <c r="V23" s="18"/>
+      <c r="W23" s="18"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="17"/>
+    </row>
+    <row r="24" spans="1:32" ht="12.75" customHeight="1">
+      <c r="A24" s="24"/>
+      <c r="B24" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="18"/>
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="18"/>
+      <c r="AD24" s="18"/>
+      <c r="AE24" s="18"/>
+      <c r="AF24" s="17"/>
+    </row>
+    <row r="25" spans="1:32" ht="12.75" customHeight="1">
+      <c r="A25" s="24"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="18"/>
+      <c r="AB25" s="18"/>
+      <c r="AC25" s="18"/>
+      <c r="AD25" s="18"/>
+      <c r="AE25" s="18"/>
+      <c r="AF25" s="17"/>
+    </row>
+    <row r="26" spans="1:32" ht="12.75" customHeight="1">
+      <c r="A26" s="24"/>
+      <c r="B26" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="21"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD26" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE26" s="18"/>
+      <c r="AF26" s="17"/>
+    </row>
+    <row r="27" spans="1:32" ht="12.75" customHeight="1">
+      <c r="A27" s="24"/>
+      <c r="B27" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="81">
+        <v>43840</v>
+      </c>
+      <c r="G27" s="82"/>
+      <c r="H27" s="82"/>
+      <c r="I27" s="83"/>
+      <c r="J27" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="K27" s="86"/>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="86"/>
+      <c r="Q27" s="86"/>
+      <c r="R27" s="86"/>
+      <c r="S27" s="86"/>
+      <c r="T27" s="86"/>
+      <c r="U27" s="86"/>
+      <c r="V27" s="86"/>
+      <c r="W27" s="86"/>
+      <c r="X27" s="86"/>
+      <c r="Y27" s="86"/>
+      <c r="Z27" s="86"/>
+      <c r="AA27" s="86"/>
+      <c r="AB27" s="45"/>
+      <c r="AC27" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD27" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE27" s="18"/>
+      <c r="AF27" s="17"/>
+    </row>
+    <row r="28" spans="1:32" ht="12.75" customHeight="1">
+      <c r="A28" s="24"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="86"/>
+      <c r="H28" s="86"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="86"/>
+      <c r="M28" s="86"/>
+      <c r="N28" s="86"/>
+      <c r="O28" s="86"/>
+      <c r="P28" s="86"/>
+      <c r="Q28" s="86"/>
+      <c r="R28" s="86"/>
+      <c r="S28" s="86"/>
+      <c r="T28" s="86"/>
+      <c r="U28" s="86"/>
+      <c r="V28" s="86"/>
+      <c r="W28" s="86"/>
+      <c r="X28" s="86"/>
+      <c r="Y28" s="86"/>
+      <c r="Z28" s="86"/>
+      <c r="AA28" s="86"/>
+      <c r="AB28" s="45"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="18"/>
+      <c r="AF28" s="17"/>
+    </row>
+    <row r="29" spans="1:32" ht="12.75" customHeight="1">
+      <c r="A29" s="24"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="89"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="86"/>
+      <c r="L29" s="86"/>
+      <c r="M29" s="86"/>
+      <c r="N29" s="86"/>
+      <c r="O29" s="86"/>
+      <c r="P29" s="86"/>
+      <c r="Q29" s="86"/>
+      <c r="R29" s="86"/>
+      <c r="S29" s="86"/>
+      <c r="T29" s="86"/>
+      <c r="U29" s="86"/>
+      <c r="V29" s="86"/>
+      <c r="W29" s="86"/>
+      <c r="X29" s="86"/>
+      <c r="Y29" s="86"/>
+      <c r="Z29" s="86"/>
+      <c r="AA29" s="86"/>
+      <c r="AB29" s="45"/>
+      <c r="AC29" s="20"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="18"/>
+      <c r="AF29" s="17"/>
+    </row>
+    <row r="30" spans="1:32" ht="12.75" customHeight="1">
+      <c r="A30" s="24"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="21"/>
+      <c r="U30" s="21"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="21"/>
+      <c r="X30" s="21"/>
+      <c r="Y30" s="21"/>
+      <c r="Z30" s="21"/>
+      <c r="AA30" s="21"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="20"/>
+      <c r="AD30" s="19"/>
+      <c r="AE30" s="18"/>
+      <c r="AF30" s="17"/>
+    </row>
+    <row r="31" spans="1:32" ht="12.75" customHeight="1">
+      <c r="A31" s="24"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="21"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="20"/>
+      <c r="AD31" s="19"/>
+      <c r="AE31" s="18"/>
+      <c r="AF31" s="17"/>
+    </row>
+    <row r="32" spans="1:32" ht="12.75" customHeight="1">
+      <c r="A32" s="24"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="21"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="21"/>
+      <c r="X32" s="21"/>
+      <c r="Y32" s="21"/>
+      <c r="Z32" s="21"/>
+      <c r="AA32" s="21"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="20"/>
+      <c r="AD32" s="19"/>
+      <c r="AE32" s="18"/>
+      <c r="AF32" s="17"/>
+    </row>
+    <row r="33" spans="1:32" ht="12.75" customHeight="1">
+      <c r="A33" s="24"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
+      <c r="V33" s="21"/>
+      <c r="W33" s="21"/>
+      <c r="X33" s="21"/>
+      <c r="Y33" s="21"/>
+      <c r="Z33" s="21"/>
+      <c r="AA33" s="21"/>
+      <c r="AB33" s="19"/>
+      <c r="AC33" s="20"/>
+      <c r="AD33" s="19"/>
+      <c r="AE33" s="18"/>
+      <c r="AF33" s="17"/>
+    </row>
+    <row r="34" spans="1:32" ht="12.75" customHeight="1">
+      <c r="A34" s="24"/>
+      <c r="B34" s="23"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
+      <c r="V34" s="21"/>
+      <c r="W34" s="21"/>
+      <c r="X34" s="21"/>
+      <c r="Y34" s="21"/>
+      <c r="Z34" s="21"/>
+      <c r="AA34" s="21"/>
+      <c r="AB34" s="19"/>
+      <c r="AC34" s="20"/>
+      <c r="AD34" s="19"/>
+      <c r="AE34" s="18"/>
+      <c r="AF34" s="17"/>
+    </row>
+    <row r="35" spans="1:32" ht="12.75" customHeight="1">
+      <c r="A35" s="24"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="21"/>
+      <c r="AA35" s="21"/>
+      <c r="AB35" s="19"/>
+      <c r="AC35" s="20"/>
+      <c r="AD35" s="19"/>
+      <c r="AE35" s="18"/>
+      <c r="AF35" s="17"/>
+    </row>
+    <row r="36" spans="1:32" ht="12.75" customHeight="1">
+      <c r="A36" s="24"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="21"/>
+      <c r="N36" s="21"/>
+      <c r="O36" s="21"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="21"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="21"/>
+      <c r="U36" s="21"/>
+      <c r="V36" s="21"/>
+      <c r="W36" s="21"/>
+      <c r="X36" s="21"/>
+      <c r="Y36" s="21"/>
+      <c r="Z36" s="21"/>
+      <c r="AA36" s="21"/>
+      <c r="AB36" s="19"/>
+      <c r="AC36" s="20"/>
+      <c r="AD36" s="19"/>
+      <c r="AE36" s="18"/>
+      <c r="AF36" s="17"/>
+    </row>
+    <row r="37" spans="1:32" ht="12.75" customHeight="1">
+      <c r="A37" s="24"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="21"/>
+      <c r="M37" s="21"/>
+      <c r="N37" s="21"/>
+      <c r="O37" s="21"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="21"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="21"/>
+      <c r="U37" s="21"/>
+      <c r="V37" s="21"/>
+      <c r="W37" s="21"/>
+      <c r="X37" s="21"/>
+      <c r="Y37" s="21"/>
+      <c r="Z37" s="21"/>
+      <c r="AA37" s="21"/>
+      <c r="AB37" s="19"/>
+      <c r="AC37" s="20"/>
+      <c r="AD37" s="19"/>
+      <c r="AE37" s="18"/>
+      <c r="AF37" s="17"/>
+    </row>
+    <row r="38" spans="1:32" ht="12.75" customHeight="1">
+      <c r="A38" s="24"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="21"/>
+      <c r="M38" s="21"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="21"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="21"/>
+      <c r="U38" s="21"/>
+      <c r="V38" s="21"/>
+      <c r="W38" s="21"/>
+      <c r="X38" s="21"/>
+      <c r="Y38" s="21"/>
+      <c r="Z38" s="21"/>
+      <c r="AA38" s="21"/>
+      <c r="AB38" s="19"/>
+      <c r="AC38" s="20"/>
+      <c r="AD38" s="19"/>
+      <c r="AE38" s="18"/>
+      <c r="AF38" s="17"/>
+    </row>
+    <row r="39" spans="1:32" ht="12.75" customHeight="1">
+      <c r="A39" s="24"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="21"/>
+      <c r="AA39" s="21"/>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="20"/>
+      <c r="AD39" s="19"/>
+      <c r="AE39" s="18"/>
+      <c r="AF39" s="17"/>
+    </row>
+    <row r="40" spans="1:32" ht="12.75" customHeight="1">
+      <c r="A40" s="24"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="21"/>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="21"/>
+      <c r="AA40" s="21"/>
+      <c r="AB40" s="19"/>
+      <c r="AC40" s="20"/>
+      <c r="AD40" s="19"/>
+      <c r="AE40" s="18"/>
+      <c r="AF40" s="17"/>
+    </row>
+    <row r="41" spans="1:32" ht="12.75" customHeight="1">
+      <c r="A41" s="24"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="21"/>
+      <c r="Z41" s="21"/>
+      <c r="AA41" s="21"/>
+      <c r="AB41" s="19"/>
+      <c r="AC41" s="20"/>
+      <c r="AD41" s="19"/>
+      <c r="AE41" s="18"/>
+      <c r="AF41" s="17"/>
+    </row>
+    <row r="42" spans="1:32" ht="12.75" customHeight="1">
+      <c r="A42" s="24"/>
+      <c r="B42" s="23"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="21"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="21"/>
+      <c r="Y42" s="21"/>
+      <c r="Z42" s="21"/>
+      <c r="AA42" s="21"/>
+      <c r="AB42" s="19"/>
+      <c r="AC42" s="20"/>
+      <c r="AD42" s="19"/>
+      <c r="AE42" s="18"/>
+      <c r="AF42" s="17"/>
+    </row>
+    <row r="43" spans="1:32" ht="12.75" customHeight="1">
+      <c r="A43" s="24"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="21"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="21"/>
+      <c r="AA43" s="21"/>
+      <c r="AB43" s="19"/>
+      <c r="AC43" s="20"/>
+      <c r="AD43" s="19"/>
+      <c r="AE43" s="18"/>
+      <c r="AF43" s="17"/>
+    </row>
+    <row r="44" spans="1:32" ht="12.75" customHeight="1">
+      <c r="A44" s="16"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="14"/>
+      <c r="W44" s="14"/>
+      <c r="X44" s="14"/>
+      <c r="Y44" s="14"/>
+      <c r="Z44" s="14"/>
+      <c r="AA44" s="14"/>
+      <c r="AB44" s="14"/>
+      <c r="AC44" s="14"/>
+      <c r="AD44" s="14"/>
+      <c r="AE44" s="14"/>
+      <c r="AF44" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="J29:AB29"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="F28:I28"/>
+    <mergeCell ref="J28:AB28"/>
+    <mergeCell ref="B10:E11"/>
+    <mergeCell ref="F10:Q11"/>
+    <mergeCell ref="L18:U20"/>
+    <mergeCell ref="F27:I27"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="J27:AB27"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="AA3:AD3"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="F9:Q9"/>
+    <mergeCell ref="Y9:Z11"/>
+    <mergeCell ref="AA9:AB11"/>
+    <mergeCell ref="AC9:AD11"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;LCopyright© 2004 System Integrator Corp.&amp;C&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{977D0306-276C-9E45-BB84-C84EC09AE07E}">
+  <dimension ref="B2:E24"/>
+  <sheetViews>
+    <sheetView zoomScale="109" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="5.1640625" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="5" max="5" width="51.6640625" customWidth="1"/>
+    <col min="6" max="7" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="14.25" customHeight="1">
+      <c r="C2" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+    </row>
+    <row r="3" spans="2:5" ht="14.25" customHeight="1">
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+    </row>
+    <row r="4" spans="2:5" ht="14.25" customHeight="1">
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="C6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="C7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="48">
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="32">
+      <c r="B11" s="8">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" ht="48">
+      <c r="B12" s="8">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" s="39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="32">
+      <c r="B13" s="8">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="39" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="32">
+      <c r="B14" s="8">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="32">
+      <c r="B15" s="8">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="8">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="32">
+      <c r="B17" s="8">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="64">
+      <c r="B18" s="8">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="8">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="8">
+        <v>11</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="8">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="48">
+      <c r="B22" s="8">
+        <v>13</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="64">
+      <c r="B23" s="8">
+        <v>14</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="32">
+      <c r="B24" s="41">
+        <v>15</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:E4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D4AFDF-9C0B-3E4B-96C5-723DD4267900}">
+  <dimension ref="B2:E24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="59.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5">
+      <c r="B2" s="92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="93"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+    </row>
+    <row r="6" spans="2:5">
       <c r="B6" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
       <c r="B7" t="s">
         <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="63">
-      <c r="A10" s="10">
+    <row r="10" spans="2:5" ht="64">
+      <c r="B10" s="8">
         <v>1</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>94</v>
+      <c r="C10" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="42">
-      <c r="A11" s="10">
+        <v>5</v>
+      </c>
+      <c r="E10" s="39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="8">
         <v>2</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="63">
-      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="8">
         <v>3</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="42">
-      <c r="A13" s="10">
+      <c r="C12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="8">
         <v>4</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="42">
-      <c r="A14" s="1">
-        <v>56</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="C13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="8">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="32">
+      <c r="B15" s="8">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" ht="48">
+      <c r="B16" s="8">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="32">
+      <c r="B17" s="8">
+        <v>8</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="48">
+      <c r="B18" s="8">
+        <v>9</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="48">
+      <c r="B19" s="8">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="32">
+      <c r="B20" s="8">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="48">
+      <c r="B21" s="8">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="42">
-      <c r="A15" s="10">
-        <v>6</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>7</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="42">
-      <c r="A17" s="1">
-        <v>8</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="84">
-      <c r="A18" s="10">
-        <v>9</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>10</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="10">
-        <v>11</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>12</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="63">
-      <c r="A22" s="10">
+      <c r="D21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="48">
+      <c r="B22" s="8">
         <v>13</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="84">
-      <c r="A23" s="1">
+      <c r="C22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="48">
+      <c r="B23" s="8">
         <v>14</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="42">
-      <c r="A24" s="11">
+      <c r="C23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="48">
+      <c r="B24" s="41">
         <v>15</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>52</v>
+      <c r="C24" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1451,287 +4372,9 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9D4AFDF-9C0B-3E4B-96C5-723DD4267900}">
-  <dimension ref="A2:D24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
-  <cols>
-    <col min="1" max="1" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
-    <col min="3" max="3" width="48" customWidth="1"/>
-    <col min="4" max="4" width="53.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:4">
-      <c r="B2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="84">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="42">
-      <c r="A15" s="1">
-        <v>6</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="63">
-      <c r="A16" s="1">
-        <v>7</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="42">
-      <c r="A17" s="1">
-        <v>8</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="63">
-      <c r="A18" s="1">
-        <v>9</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="63">
-      <c r="A19" s="1">
-        <v>10</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="42">
-      <c r="A20" s="1">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="63">
-      <c r="A21" s="1">
-        <v>12</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="63">
-      <c r="A22" s="1">
-        <v>13</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="63">
-      <c r="A23" s="1">
-        <v>14</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="63">
-      <c r="A24" s="1">
-        <v>15</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:D4"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>